--- a/sample.xlsx
+++ b/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">Mahesh Shirsath demo</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bhingare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prachi Shirsath</t>
   </si>
 </sst>
 </file>
@@ -135,16 +138,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
   <sheetData>
@@ -204,6 +207,14 @@
       </c>
       <c r="B8" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
